--- a/final_results.xlsx
+++ b/final_results.xlsx
@@ -477,11 +477,7 @@
           <t>MEDUEP903614</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>15/06/2024</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -495,11 +491,7 @@
           <t>MEDUQR082783</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>15/06/2024</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -513,11 +505,7 @@
           <t>MEDUOX228580</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>09/06/2024</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
@@ -531,11 +519,7 @@
           <t>MEDUOX171012</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>09/06/2024</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
@@ -549,11 +533,7 @@
           <t>MEDUQR174648</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>15/06/2024</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
@@ -567,11 +547,7 @@
           <t>MEDUQR174390</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>15/06/2024</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -585,11 +561,7 @@
           <t>MEDUOC834977</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>09/06/2024</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
@@ -603,11 +575,7 @@
           <t>MEDUQR510304</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>09/06/2024</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -621,11 +589,7 @@
           <t>MEDUOX166236</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>09/06/2024</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
@@ -639,11 +603,7 @@
           <t>MEDUUW710278</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>09/06/2024</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
